--- a/demo/Score.xlsx
+++ b/demo/Score.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Fusion Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,198 @@
   </si>
   <si>
     <t>6-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,11 +496,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +586,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,9 +1156,394 @@
         <v>7.0588235294117646E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.31489361702127699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.51666666666666705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.537333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.53809523809523796</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0.59583333333333299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.45272727272727298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.45714285714285702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.24594594594594599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="27">
+        <v>0.458139534883721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.543548387096774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.45686274509803898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.51296296296296295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="9">
+        <v>0.42962962962963003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="11">
+        <v>4.0974358974358999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="25">
+        <v>0.85744680851063804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.5527426160337553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.51330203442879496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.5292397660818714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.48148148148148145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.59595959595959602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.53497942386831276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0.56241426611796996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="29">
+        <v>0.63973063973063971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="27">
+        <v>0.87460317460317505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.53333333333333321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.61032863849765251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.47743055555555558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="9">
+        <v>7.5757575757580001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0.42756680731364277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0.58487654320987648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="25">
+        <v>0.95555555555555605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.66615384615384599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.70789473684210502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0.60370370370370396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="9">
+        <v>0.20882352941176499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0.497674418604651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0.682894736842105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="29">
+        <v>0.58428571428571396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="27">
+        <v>0.65126760563380204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.57746478873239404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.67450980392156901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.53947368421052599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0.622352941176471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="11">
+        <v>2.8571428571429998E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0.85070422535211299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="25">
+        <v>0.97258227848101297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>